--- a/Чек-лист (Aliexpress).xlsx
+++ b/Чек-лист (Aliexpress).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Работа\Портфолио (Git)\Чек-листы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89247D3E-B950-495A-AE11-F4DEEB09CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F550C9-CCEB-4CA1-9932-3E41C69EFFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="150">
   <si>
     <t>Проект</t>
   </si>
@@ -410,6 +410,66 @@
   </si>
   <si>
     <t>Список прогружается автоматически при пролистывании</t>
+  </si>
+  <si>
+    <t>Отображаются купоны от продавца</t>
+  </si>
+  <si>
+    <t>Карточка отзыва</t>
+  </si>
+  <si>
+    <t>Текст отзыва</t>
+  </si>
+  <si>
+    <t>Изображения отображаются в виде горизонтального слайдера</t>
+  </si>
+  <si>
+    <t>Отображается кнопка лайка</t>
+  </si>
+  <si>
+    <t>Нажатие на кнопку лайка ставит лайк</t>
+  </si>
+  <si>
+    <t>Повторное нажатие скрывает лайк</t>
+  </si>
+  <si>
+    <t>Отображается аватар пользователя</t>
+  </si>
+  <si>
+    <t>Отображается флаг страны</t>
+  </si>
+  <si>
+    <t>Отображается имя пользователя</t>
+  </si>
+  <si>
+    <t>Отображается дата отзыва в формате "Д месяц ГГГГ"</t>
+  </si>
+  <si>
+    <t>Отображается оценка в виде звезд</t>
+  </si>
+  <si>
+    <t>Карточка рекомендованного товара</t>
+  </si>
+  <si>
+    <t>Отображается пометка о скидке</t>
+  </si>
+  <si>
+    <t>Отображается скидка в процентах</t>
+  </si>
+  <si>
+    <t>Отображается цена со скидкой</t>
+  </si>
+  <si>
+    <t>Отображается рейтинг товара</t>
+  </si>
+  <si>
+    <t>Отображается количество заказов</t>
+  </si>
+  <si>
+    <t>Отображается название в 2 строки с многоточием в конце, если текст большой</t>
+  </si>
+  <si>
+    <t>Информация о доставке</t>
   </si>
 </sst>
 </file>
@@ -419,7 +479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -445,6 +505,14 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -466,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -474,11 +542,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -494,6 +577,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -507,45 +593,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0"/>
@@ -564,22 +619,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -797,10 +839,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:G1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -814,56 +856,56 @@
     <col min="7" max="7" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11">
         <v>45693</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1265,7 @@
       <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="5" t="s">
         <v>44</v>
       </c>
@@ -1640,7 +1682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1657,31 +1699,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>21</v>
@@ -1698,7 +1740,7 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>21</v>
@@ -1710,68 +1752,68 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5" t="s">
+      <c r="E54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E56" s="5" t="s">
         <v>21</v>
       </c>
@@ -1782,12 +1824,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>21</v>
@@ -1804,7 +1846,7 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>21</v>
@@ -1816,12 +1858,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>21</v>
@@ -1833,14 +1875,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>21</v>
@@ -1852,12 +1892,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="D61" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>21</v>
@@ -1874,7 +1916,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>21</v>
@@ -1886,14 +1928,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>21</v>
@@ -1908,9 +1948,11 @@
     <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D64" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>21</v>
@@ -1927,7 +1969,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>21</v>
@@ -1944,7 +1986,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>21</v>
@@ -1959,11 +2001,9 @@
     <row r="67" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>21</v>
@@ -1978,9 +2018,11 @@
     <row r="68" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="D68" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>21</v>
@@ -1992,12 +2034,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>21</v>
@@ -2009,12 +2051,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>21</v>
@@ -2026,34 +2068,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="E72" s="5" t="s">
         <v>21</v>
       </c>
@@ -2064,17 +2104,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="B73" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>21</v>
@@ -2083,17 +2123,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>21</v>
@@ -2102,15 +2140,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>21</v>
@@ -2124,10 +2162,10 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>21</v>
@@ -2139,14 +2177,12 @@
     <row r="77" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>21</v>
@@ -2155,15 +2191,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>21</v>
@@ -2172,17 +2208,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>21</v>
@@ -2191,15 +2225,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>21</v>
@@ -2208,17 +2242,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>21</v>
@@ -2230,14 +2262,12 @@
     <row r="82" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>21</v>
@@ -2246,15 +2276,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+    <row r="83" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>21</v>
@@ -2263,17 +2295,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+    <row r="84" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>21</v>
@@ -2283,11 +2315,13 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>108</v>
@@ -2301,12 +2335,10 @@
     </row>
     <row r="86" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>108</v>
@@ -2318,14 +2350,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>108</v>
@@ -2337,12 +2367,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D88" s="5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>108</v>
@@ -2359,7 +2391,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>108</v>
@@ -2371,12 +2403,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+      <c r="C90" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="D90" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>108</v>
@@ -2388,12 +2422,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>108</v>
@@ -2408,11 +2442,11 @@
     <row r="92" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>108</v>
@@ -2424,12 +2458,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="D93" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>108</v>
@@ -2442,11 +2478,11 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>108</v>
@@ -2458,2737 +2494,3031 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+    <row r="95" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="6"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="6"/>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="6"/>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="6"/>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="6"/>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="6"/>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="6"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="6"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="6"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="D96" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D108" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D109" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D110" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D111" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D112" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D113" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D114" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E165" s="6"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E166" s="6"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E201" s="6"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E202" s="6"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E203" s="6"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E204" s="6"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E205" s="6"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E207" s="6"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E208" s="6"/>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E210" s="6"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E211" s="6"/>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E212" s="6"/>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E213" s="6"/>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E214" s="6"/>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E215" s="6"/>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E216" s="6"/>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E217" s="6"/>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E218" s="6"/>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E219" s="6"/>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E220" s="6"/>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E221" s="6"/>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E222" s="6"/>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E223" s="6"/>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E224" s="6"/>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E225" s="6"/>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E226" s="6"/>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E227" s="6"/>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E228" s="6"/>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E229" s="6"/>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E230" s="6"/>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E231" s="6"/>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E232" s="6"/>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E233" s="6"/>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E234" s="6"/>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E235" s="6"/>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E236" s="6"/>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E237" s="6"/>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E238" s="6"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E239" s="6"/>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E240" s="6"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E241" s="6"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E242" s="6"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E243" s="6"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E244" s="6"/>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E245" s="6"/>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E246" s="6"/>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E247" s="6"/>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E248" s="6"/>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E249" s="6"/>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E250" s="6"/>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E251" s="6"/>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E252" s="6"/>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E253" s="6"/>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E254" s="6"/>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E255" s="6"/>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E256" s="6"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E257" s="6"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E258" s="6"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E259" s="6"/>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E260" s="6"/>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E261" s="6"/>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E262" s="6"/>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E263" s="6"/>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E264" s="6"/>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E265" s="6"/>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E266" s="6"/>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E267" s="6"/>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E268" s="6"/>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E269" s="6"/>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E270" s="6"/>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E271" s="6"/>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E272" s="6"/>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E273" s="6"/>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E274" s="6"/>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E275" s="6"/>
     </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E276" s="6"/>
     </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E277" s="6"/>
     </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E278" s="6"/>
     </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E279" s="6"/>
     </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E280" s="6"/>
     </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E281" s="6"/>
     </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E282" s="6"/>
     </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E283" s="6"/>
     </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E284" s="6"/>
     </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E286" s="6"/>
     </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E287" s="6"/>
     </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E288" s="6"/>
     </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E289" s="6"/>
     </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E290" s="6"/>
     </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E291" s="6"/>
     </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E292" s="6"/>
     </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E293" s="6"/>
     </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E294" s="6"/>
     </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E295" s="6"/>
     </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E296" s="6"/>
     </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E297" s="6"/>
     </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E298" s="6"/>
     </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E299" s="6"/>
     </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E300" s="6"/>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E301" s="6"/>
     </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E302" s="6"/>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E303" s="6"/>
     </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E304" s="6"/>
     </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E305" s="6"/>
     </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E306" s="6"/>
     </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E307" s="6"/>
     </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E308" s="6"/>
     </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E309" s="6"/>
     </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E310" s="6"/>
     </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E311" s="6"/>
     </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E312" s="6"/>
     </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E313" s="6"/>
     </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E314" s="6"/>
     </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E315" s="6"/>
     </row>
-    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E316" s="6"/>
     </row>
-    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E317" s="6"/>
     </row>
-    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E318" s="6"/>
     </row>
-    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E319" s="6"/>
     </row>
-    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E320" s="6"/>
     </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E321" s="6"/>
     </row>
-    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E322" s="6"/>
     </row>
-    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E323" s="6"/>
     </row>
-    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E324" s="6"/>
     </row>
-    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E325" s="6"/>
     </row>
-    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E327" s="6"/>
     </row>
-    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E328" s="6"/>
     </row>
-    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E329" s="6"/>
     </row>
-    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E330" s="6"/>
     </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E331" s="6"/>
     </row>
-    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E332" s="6"/>
     </row>
-    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E333" s="6"/>
     </row>
-    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E334" s="6"/>
     </row>
-    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E335" s="6"/>
     </row>
-    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E336" s="6"/>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E337" s="6"/>
     </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E338" s="6"/>
     </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E339" s="6"/>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E340" s="6"/>
     </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E341" s="6"/>
     </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E342" s="6"/>
     </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E343" s="6"/>
     </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E344" s="6"/>
     </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E345" s="6"/>
     </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E346" s="6"/>
     </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E347" s="6"/>
     </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E348" s="6"/>
     </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E349" s="6"/>
     </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E350" s="6"/>
     </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E351" s="6"/>
     </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E352" s="6"/>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E353" s="6"/>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E355" s="6"/>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E356" s="6"/>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E357" s="6"/>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E358" s="6"/>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E359" s="6"/>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E360" s="6"/>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E361" s="6"/>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E362" s="6"/>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E363" s="6"/>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E364" s="6"/>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E365" s="6"/>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E366" s="6"/>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E367" s="6"/>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E368" s="6"/>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E369" s="6"/>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E370" s="6"/>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E371" s="6"/>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E372" s="6"/>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E373" s="6"/>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E374" s="6"/>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E375" s="6"/>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E376" s="6"/>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E377" s="6"/>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E378" s="6"/>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E379" s="6"/>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E380" s="6"/>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E381" s="6"/>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E382" s="6"/>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E383" s="6"/>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E384" s="6"/>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E385" s="6"/>
     </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E386" s="6"/>
     </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E387" s="6"/>
     </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E388" s="6"/>
     </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E389" s="6"/>
     </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E390" s="6"/>
     </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E391" s="6"/>
     </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E392" s="6"/>
     </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E393" s="6"/>
     </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E394" s="6"/>
     </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E395" s="6"/>
     </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E396" s="6"/>
     </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E397" s="6"/>
     </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E398" s="6"/>
     </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E399" s="6"/>
     </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E400" s="6"/>
     </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E401" s="6"/>
     </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E402" s="6"/>
     </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E403" s="6"/>
     </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E404" s="6"/>
     </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E405" s="6"/>
     </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E406" s="6"/>
     </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E407" s="6"/>
     </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E408" s="6"/>
     </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E409" s="6"/>
     </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E410" s="6"/>
     </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E411" s="6"/>
     </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E412" s="6"/>
     </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E413" s="6"/>
     </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E414" s="6"/>
     </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E415" s="6"/>
     </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E416" s="6"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E417" s="6"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E418" s="6"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E419" s="6"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E420" s="6"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E421" s="6"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E422" s="6"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E423" s="6"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E424" s="6"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E425" s="6"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E426" s="6"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E427" s="6"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E428" s="6"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E429" s="6"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E430" s="6"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E431" s="6"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E432" s="6"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E433" s="6"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E434" s="6"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E435" s="6"/>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E436" s="6"/>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E437" s="6"/>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E438" s="6"/>
     </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E439" s="6"/>
     </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E440" s="6"/>
     </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E441" s="6"/>
     </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E442" s="6"/>
     </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E443" s="6"/>
     </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E444" s="6"/>
     </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E445" s="6"/>
     </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E446" s="6"/>
     </row>
-    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E447" s="6"/>
     </row>
-    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E448" s="6"/>
     </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E449" s="6"/>
     </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E450" s="6"/>
     </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E451" s="6"/>
     </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E452" s="6"/>
     </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E453" s="6"/>
     </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E454" s="6"/>
     </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E455" s="6"/>
     </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E456" s="6"/>
     </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E457" s="6"/>
     </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E458" s="6"/>
     </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E459" s="6"/>
     </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E460" s="6"/>
     </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E461" s="6"/>
     </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E462" s="6"/>
     </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E463" s="6"/>
     </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E464" s="6"/>
     </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E465" s="6"/>
     </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E466" s="6"/>
     </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E467" s="6"/>
     </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E468" s="6"/>
     </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E469" s="6"/>
     </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E470" s="6"/>
     </row>
-    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E471" s="6"/>
     </row>
-    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E472" s="6"/>
     </row>
-    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E473" s="6"/>
     </row>
-    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E474" s="6"/>
     </row>
-    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E475" s="6"/>
     </row>
-    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E476" s="6"/>
     </row>
-    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E477" s="6"/>
     </row>
-    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E478" s="6"/>
     </row>
-    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E479" s="6"/>
     </row>
-    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E480" s="6"/>
     </row>
-    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E481" s="6"/>
     </row>
-    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E482" s="6"/>
     </row>
-    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E483" s="6"/>
     </row>
-    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E484" s="6"/>
     </row>
-    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E485" s="6"/>
     </row>
-    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E486" s="6"/>
     </row>
-    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E487" s="6"/>
     </row>
-    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E488" s="6"/>
     </row>
-    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E489" s="6"/>
     </row>
-    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E490" s="6"/>
     </row>
-    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E491" s="6"/>
     </row>
-    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E492" s="6"/>
     </row>
-    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E493" s="6"/>
     </row>
-    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E494" s="6"/>
     </row>
-    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E495" s="6"/>
     </row>
-    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E496" s="6"/>
     </row>
-    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E497" s="6"/>
     </row>
-    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E498" s="6"/>
     </row>
-    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E499" s="6"/>
     </row>
-    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E500" s="6"/>
     </row>
-    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E501" s="6"/>
     </row>
-    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E502" s="6"/>
     </row>
-    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E503" s="6"/>
     </row>
-    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E504" s="6"/>
     </row>
-    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E505" s="6"/>
     </row>
-    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E506" s="6"/>
     </row>
-    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E507" s="6"/>
     </row>
-    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E508" s="6"/>
     </row>
-    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E509" s="6"/>
     </row>
-    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E510" s="6"/>
     </row>
-    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E511" s="6"/>
     </row>
-    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E512" s="6"/>
     </row>
-    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E513" s="6"/>
     </row>
-    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E514" s="6"/>
     </row>
-    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E515" s="6"/>
     </row>
-    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E516" s="6"/>
     </row>
-    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E517" s="6"/>
     </row>
-    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E518" s="6"/>
     </row>
-    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E519" s="6"/>
     </row>
-    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E520" s="6"/>
     </row>
-    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E521" s="6"/>
     </row>
-    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E522" s="6"/>
     </row>
-    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E523" s="6"/>
     </row>
-    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E524" s="6"/>
     </row>
-    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E525" s="6"/>
     </row>
-    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E526" s="6"/>
     </row>
-    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E527" s="6"/>
     </row>
-    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E528" s="6"/>
     </row>
-    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E529" s="6"/>
     </row>
-    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E530" s="6"/>
     </row>
-    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E531" s="6"/>
     </row>
-    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E532" s="6"/>
     </row>
-    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E533" s="6"/>
     </row>
-    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E534" s="6"/>
     </row>
-    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E535" s="6"/>
     </row>
-    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E536" s="6"/>
     </row>
-    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E537" s="6"/>
     </row>
-    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E538" s="6"/>
     </row>
-    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E539" s="6"/>
     </row>
-    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E540" s="6"/>
     </row>
-    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E541" s="6"/>
     </row>
-    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E542" s="6"/>
     </row>
-    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E543" s="6"/>
     </row>
-    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E544" s="6"/>
     </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E545" s="6"/>
     </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E546" s="6"/>
     </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E547" s="6"/>
     </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E548" s="6"/>
     </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E549" s="6"/>
     </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E550" s="6"/>
     </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E551" s="6"/>
     </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E552" s="6"/>
     </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E553" s="6"/>
     </row>
-    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E554" s="6"/>
     </row>
-    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E555" s="6"/>
     </row>
-    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E556" s="6"/>
     </row>
-    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E557" s="6"/>
     </row>
-    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E558" s="6"/>
     </row>
-    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E559" s="6"/>
     </row>
-    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E560" s="6"/>
     </row>
-    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E561" s="6"/>
     </row>
-    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E562" s="6"/>
     </row>
-    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E563" s="6"/>
     </row>
-    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E564" s="6"/>
     </row>
-    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E565" s="6"/>
     </row>
-    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E566" s="6"/>
     </row>
-    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E567" s="6"/>
     </row>
-    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E568" s="6"/>
     </row>
-    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E569" s="6"/>
     </row>
-    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E570" s="6"/>
     </row>
-    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E571" s="6"/>
     </row>
-    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E572" s="6"/>
     </row>
-    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E573" s="6"/>
     </row>
-    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E574" s="6"/>
     </row>
-    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E575" s="6"/>
     </row>
-    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E576" s="6"/>
     </row>
-    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E577" s="6"/>
     </row>
-    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E578" s="6"/>
     </row>
-    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E579" s="6"/>
     </row>
-    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E580" s="6"/>
     </row>
-    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E581" s="6"/>
     </row>
-    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E582" s="6"/>
     </row>
-    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E583" s="6"/>
     </row>
-    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E584" s="6"/>
     </row>
-    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E585" s="6"/>
     </row>
-    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E586" s="6"/>
     </row>
-    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E587" s="6"/>
     </row>
-    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E588" s="6"/>
     </row>
-    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E589" s="6"/>
     </row>
-    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E590" s="6"/>
     </row>
-    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E591" s="6"/>
     </row>
-    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E592" s="6"/>
     </row>
-    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E593" s="6"/>
     </row>
-    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E594" s="6"/>
     </row>
-    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E595" s="6"/>
     </row>
-    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E596" s="6"/>
     </row>
-    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E597" s="6"/>
     </row>
-    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E598" s="6"/>
     </row>
-    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E599" s="6"/>
     </row>
-    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E600" s="6"/>
     </row>
-    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E601" s="6"/>
     </row>
-    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E602" s="6"/>
     </row>
-    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E603" s="6"/>
     </row>
-    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E604" s="6"/>
     </row>
-    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E605" s="6"/>
     </row>
-    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E606" s="6"/>
     </row>
-    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E607" s="6"/>
     </row>
-    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E608" s="6"/>
     </row>
-    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E609" s="6"/>
     </row>
-    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E610" s="6"/>
     </row>
-    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E611" s="6"/>
     </row>
-    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E612" s="6"/>
     </row>
-    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E613" s="6"/>
     </row>
-    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E614" s="6"/>
     </row>
-    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E615" s="6"/>
     </row>
-    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E616" s="6"/>
     </row>
-    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E617" s="6"/>
     </row>
-    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E618" s="6"/>
     </row>
-    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E619" s="6"/>
     </row>
-    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E620" s="6"/>
     </row>
-    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E621" s="6"/>
     </row>
-    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E622" s="6"/>
     </row>
-    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E623" s="6"/>
     </row>
-    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E624" s="6"/>
     </row>
-    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E625" s="6"/>
     </row>
-    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E626" s="6"/>
     </row>
-    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E627" s="6"/>
     </row>
-    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E628" s="6"/>
     </row>
-    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E629" s="6"/>
     </row>
-    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E630" s="6"/>
     </row>
-    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E631" s="6"/>
     </row>
-    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E632" s="6"/>
     </row>
-    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E633" s="6"/>
     </row>
-    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E634" s="6"/>
     </row>
-    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E635" s="6"/>
     </row>
-    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E636" s="6"/>
     </row>
-    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E637" s="6"/>
     </row>
-    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E638" s="6"/>
     </row>
-    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E639" s="6"/>
     </row>
-    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E640" s="6"/>
     </row>
-    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E641" s="6"/>
     </row>
-    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E642" s="6"/>
     </row>
-    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E643" s="6"/>
     </row>
-    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E644" s="6"/>
     </row>
-    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E645" s="6"/>
     </row>
-    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E646" s="6"/>
     </row>
-    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E647" s="6"/>
     </row>
-    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E648" s="6"/>
     </row>
-    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E649" s="6"/>
     </row>
-    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E650" s="6"/>
     </row>
-    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E651" s="6"/>
     </row>
-    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E652" s="6"/>
     </row>
-    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E653" s="6"/>
     </row>
-    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E654" s="6"/>
     </row>
-    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E655" s="6"/>
     </row>
-    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E656" s="6"/>
     </row>
-    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E657" s="6"/>
     </row>
-    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E658" s="6"/>
     </row>
-    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E659" s="6"/>
     </row>
-    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E660" s="6"/>
     </row>
-    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E661" s="6"/>
     </row>
-    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E662" s="6"/>
     </row>
-    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E663" s="6"/>
     </row>
-    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E664" s="6"/>
     </row>
-    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E665" s="6"/>
     </row>
-    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E666" s="6"/>
     </row>
-    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E667" s="6"/>
     </row>
-    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E668" s="6"/>
     </row>
-    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E669" s="6"/>
     </row>
-    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E670" s="6"/>
     </row>
-    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E671" s="6"/>
     </row>
-    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E672" s="6"/>
     </row>
-    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E673" s="6"/>
     </row>
-    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E674" s="6"/>
     </row>
-    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E675" s="6"/>
     </row>
-    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E676" s="6"/>
     </row>
-    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E677" s="6"/>
     </row>
-    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E678" s="6"/>
     </row>
-    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E679" s="6"/>
     </row>
-    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E680" s="6"/>
     </row>
-    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E681" s="6"/>
     </row>
-    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E682" s="6"/>
     </row>
-    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E683" s="6"/>
     </row>
-    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E684" s="6"/>
     </row>
-    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E685" s="6"/>
     </row>
-    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E686" s="6"/>
     </row>
-    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E687" s="6"/>
     </row>
-    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E688" s="6"/>
     </row>
-    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E689" s="6"/>
     </row>
-    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E690" s="6"/>
     </row>
-    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E691" s="6"/>
     </row>
-    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E692" s="6"/>
     </row>
-    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E693" s="6"/>
     </row>
-    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E694" s="6"/>
     </row>
-    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E695" s="6"/>
     </row>
-    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E696" s="6"/>
     </row>
-    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E697" s="6"/>
     </row>
-    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E698" s="6"/>
     </row>
-    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E699" s="6"/>
     </row>
-    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E700" s="6"/>
     </row>
-    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E701" s="6"/>
     </row>
-    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E702" s="6"/>
     </row>
-    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E703" s="6"/>
     </row>
-    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E704" s="6"/>
     </row>
-    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E705" s="6"/>
     </row>
-    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E706" s="6"/>
     </row>
-    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E707" s="6"/>
     </row>
-    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E708" s="6"/>
     </row>
-    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E709" s="6"/>
     </row>
-    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E710" s="6"/>
     </row>
-    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E711" s="6"/>
     </row>
-    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E712" s="6"/>
     </row>
-    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E713" s="6"/>
     </row>
-    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E714" s="6"/>
     </row>
-    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E715" s="6"/>
     </row>
-    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E716" s="6"/>
     </row>
-    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E717" s="6"/>
     </row>
-    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E718" s="6"/>
     </row>
-    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E719" s="6"/>
     </row>
-    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E720" s="6"/>
     </row>
-    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E721" s="6"/>
     </row>
-    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E722" s="6"/>
     </row>
-    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E723" s="6"/>
     </row>
-    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E724" s="6"/>
     </row>
-    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E725" s="6"/>
     </row>
-    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E726" s="6"/>
     </row>
-    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E727" s="6"/>
     </row>
-    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E728" s="6"/>
     </row>
-    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E729" s="6"/>
     </row>
-    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E730" s="6"/>
     </row>
-    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E731" s="6"/>
     </row>
-    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E732" s="6"/>
     </row>
-    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E733" s="6"/>
     </row>
-    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E734" s="6"/>
     </row>
-    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E735" s="6"/>
     </row>
-    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E736" s="6"/>
     </row>
-    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E737" s="6"/>
     </row>
-    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E738" s="6"/>
     </row>
-    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E739" s="6"/>
     </row>
-    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E740" s="6"/>
     </row>
-    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E741" s="6"/>
     </row>
-    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E742" s="6"/>
     </row>
-    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E743" s="6"/>
     </row>
-    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E744" s="6"/>
     </row>
-    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E745" s="6"/>
     </row>
-    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E746" s="6"/>
     </row>
-    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E747" s="6"/>
     </row>
-    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E748" s="6"/>
     </row>
-    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E749" s="6"/>
     </row>
-    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E750" s="6"/>
     </row>
-    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E751" s="6"/>
     </row>
-    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E752" s="6"/>
     </row>
-    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E753" s="6"/>
     </row>
-    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E754" s="6"/>
     </row>
-    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E755" s="6"/>
     </row>
-    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E756" s="6"/>
     </row>
-    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E757" s="6"/>
     </row>
-    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E758" s="6"/>
     </row>
-    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E759" s="6"/>
     </row>
-    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E760" s="6"/>
     </row>
-    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E761" s="6"/>
     </row>
-    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E762" s="6"/>
     </row>
-    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E763" s="6"/>
     </row>
-    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E764" s="6"/>
     </row>
-    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E765" s="6"/>
     </row>
-    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E766" s="6"/>
     </row>
-    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E767" s="6"/>
     </row>
-    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E768" s="6"/>
     </row>
-    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E769" s="6"/>
     </row>
-    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E770" s="6"/>
     </row>
-    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E771" s="6"/>
     </row>
-    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E772" s="6"/>
     </row>
-    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E773" s="6"/>
     </row>
-    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E774" s="6"/>
     </row>
-    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E775" s="6"/>
     </row>
-    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E776" s="6"/>
     </row>
-    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E777" s="6"/>
     </row>
-    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E778" s="6"/>
     </row>
-    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E779" s="6"/>
     </row>
-    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E780" s="6"/>
     </row>
-    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E781" s="6"/>
     </row>
-    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E782" s="6"/>
     </row>
-    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E783" s="6"/>
     </row>
-    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E784" s="6"/>
     </row>
-    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E785" s="6"/>
     </row>
-    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E786" s="6"/>
     </row>
-    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E787" s="6"/>
     </row>
-    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E788" s="6"/>
     </row>
-    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E789" s="6"/>
     </row>
-    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E790" s="6"/>
     </row>
-    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E791" s="6"/>
     </row>
-    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E792" s="6"/>
     </row>
-    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E793" s="6"/>
     </row>
-    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E794" s="6"/>
     </row>
-    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E795" s="6"/>
     </row>
-    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E796" s="6"/>
     </row>
-    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E797" s="6"/>
     </row>
-    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E798" s="6"/>
     </row>
-    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E799" s="6"/>
     </row>
-    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E800" s="6"/>
     </row>
-    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E801" s="6"/>
     </row>
-    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E802" s="6"/>
     </row>
-    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E803" s="6"/>
     </row>
-    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E804" s="6"/>
     </row>
-    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E805" s="6"/>
     </row>
-    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E806" s="6"/>
     </row>
-    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E807" s="6"/>
     </row>
-    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E808" s="6"/>
     </row>
-    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E809" s="6"/>
     </row>
-    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E810" s="6"/>
     </row>
-    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E811" s="6"/>
     </row>
-    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E812" s="6"/>
     </row>
-    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E813" s="6"/>
     </row>
-    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E814" s="6"/>
     </row>
-    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E815" s="6"/>
     </row>
-    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E816" s="6"/>
     </row>
-    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E817" s="6"/>
     </row>
-    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E818" s="6"/>
     </row>
-    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E819" s="6"/>
     </row>
-    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E820" s="6"/>
     </row>
-    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E821" s="6"/>
     </row>
-    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E822" s="6"/>
     </row>
-    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E823" s="6"/>
     </row>
-    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E824" s="6"/>
     </row>
-    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E825" s="6"/>
     </row>
-    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E826" s="6"/>
     </row>
-    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E827" s="6"/>
     </row>
-    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E828" s="6"/>
     </row>
-    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E829" s="6"/>
     </row>
-    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E830" s="6"/>
     </row>
-    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E831" s="6"/>
     </row>
-    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E832" s="6"/>
     </row>
-    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E833" s="6"/>
     </row>
-    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E834" s="6"/>
     </row>
-    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E835" s="6"/>
     </row>
-    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E836" s="6"/>
     </row>
-    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E837" s="6"/>
     </row>
-    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E838" s="6"/>
     </row>
-    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E839" s="6"/>
     </row>
-    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E840" s="6"/>
     </row>
-    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E841" s="6"/>
     </row>
-    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E842" s="6"/>
     </row>
-    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E843" s="6"/>
     </row>
-    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E844" s="6"/>
     </row>
-    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E845" s="6"/>
     </row>
-    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E846" s="6"/>
     </row>
-    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E847" s="6"/>
     </row>
-    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E848" s="6"/>
     </row>
-    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E849" s="6"/>
     </row>
-    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E850" s="6"/>
     </row>
-    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E851" s="6"/>
     </row>
-    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E852" s="6"/>
     </row>
-    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E853" s="6"/>
     </row>
-    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E854" s="6"/>
     </row>
-    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E855" s="6"/>
     </row>
-    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E856" s="6"/>
     </row>
-    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E857" s="6"/>
     </row>
-    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E858" s="6"/>
     </row>
-    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E859" s="6"/>
     </row>
-    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E860" s="6"/>
     </row>
-    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E861" s="6"/>
     </row>
-    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E862" s="6"/>
     </row>
-    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E863" s="6"/>
     </row>
-    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E864" s="6"/>
     </row>
-    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E865" s="6"/>
     </row>
-    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E866" s="6"/>
     </row>
-    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E867" s="6"/>
     </row>
-    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E868" s="6"/>
     </row>
-    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E869" s="6"/>
     </row>
-    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E870" s="6"/>
     </row>
-    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E871" s="6"/>
     </row>
-    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E872" s="6"/>
     </row>
-    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E873" s="6"/>
     </row>
-    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E874" s="6"/>
     </row>
-    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E875" s="6"/>
     </row>
-    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E876" s="6"/>
     </row>
-    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E877" s="6"/>
     </row>
-    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E878" s="6"/>
     </row>
-    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E879" s="6"/>
     </row>
-    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E880" s="6"/>
     </row>
-    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E881" s="6"/>
     </row>
-    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E882" s="6"/>
     </row>
-    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E883" s="6"/>
     </row>
-    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E884" s="6"/>
     </row>
-    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E885" s="6"/>
     </row>
-    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E886" s="6"/>
     </row>
-    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E887" s="6"/>
     </row>
-    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E888" s="6"/>
     </row>
-    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E889" s="6"/>
     </row>
-    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E890" s="6"/>
     </row>
-    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E891" s="6"/>
     </row>
-    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E892" s="6"/>
     </row>
-    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E893" s="6"/>
     </row>
-    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E894" s="6"/>
     </row>
-    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E895" s="6"/>
     </row>
-    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E896" s="6"/>
     </row>
-    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E897" s="6"/>
     </row>
-    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E898" s="6"/>
     </row>
-    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E899" s="6"/>
     </row>
-    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E900" s="6"/>
     </row>
-    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E901" s="6"/>
     </row>
-    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E902" s="6"/>
     </row>
-    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E903" s="6"/>
     </row>
-    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E904" s="6"/>
     </row>
-    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E905" s="6"/>
     </row>
-    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E906" s="6"/>
     </row>
-    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E907" s="6"/>
     </row>
-    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E908" s="6"/>
     </row>
-    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E909" s="6"/>
     </row>
-    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E910" s="6"/>
     </row>
-    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E911" s="6"/>
     </row>
-    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E912" s="6"/>
     </row>
-    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E913" s="6"/>
     </row>
-    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E914" s="6"/>
     </row>
-    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="915" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E915" s="6"/>
     </row>
-    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E916" s="6"/>
     </row>
-    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E917" s="6"/>
     </row>
-    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E918" s="6"/>
     </row>
-    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E919" s="6"/>
     </row>
-    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E920" s="6"/>
     </row>
-    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E921" s="6"/>
     </row>
-    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E922" s="6"/>
     </row>
-    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E923" s="6"/>
     </row>
-    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="924" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E924" s="6"/>
     </row>
-    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="925" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E925" s="6"/>
     </row>
-    <row r="926" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="926" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E926" s="6"/>
     </row>
-    <row r="927" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="927" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E927" s="6"/>
     </row>
-    <row r="928" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="928" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E928" s="6"/>
     </row>
-    <row r="929" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="929" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E929" s="6"/>
     </row>
-    <row r="930" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="930" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E930" s="6"/>
     </row>
-    <row r="931" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="931" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E931" s="6"/>
     </row>
-    <row r="932" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="932" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E932" s="6"/>
     </row>
-    <row r="933" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="933" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E933" s="6"/>
     </row>
-    <row r="934" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="934" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E934" s="6"/>
     </row>
-    <row r="935" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="935" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E935" s="6"/>
     </row>
-    <row r="936" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="936" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E936" s="6"/>
     </row>
-    <row r="937" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="937" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E937" s="6"/>
     </row>
-    <row r="938" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="938" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E938" s="6"/>
     </row>
-    <row r="939" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="939" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E939" s="6"/>
     </row>
-    <row r="940" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="940" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E940" s="6"/>
     </row>
-    <row r="941" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="941" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E941" s="6"/>
     </row>
-    <row r="942" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="942" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E942" s="6"/>
     </row>
-    <row r="943" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="943" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E943" s="6"/>
     </row>
-    <row r="944" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="944" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E944" s="6"/>
     </row>
-    <row r="945" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E945" s="6"/>
     </row>
-    <row r="946" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E946" s="6"/>
     </row>
-    <row r="947" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E947" s="6"/>
     </row>
-    <row r="948" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="948" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E948" s="6"/>
     </row>
-    <row r="949" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E949" s="6"/>
     </row>
-    <row r="950" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="950" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E950" s="6"/>
     </row>
-    <row r="951" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="951" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E951" s="6"/>
     </row>
-    <row r="952" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="952" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E952" s="6"/>
     </row>
-    <row r="953" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="953" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E953" s="6"/>
     </row>
-    <row r="954" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="954" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E954" s="6"/>
     </row>
-    <row r="955" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="955" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E955" s="6"/>
     </row>
-    <row r="956" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="956" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E956" s="6"/>
     </row>
-    <row r="957" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="957" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E957" s="6"/>
     </row>
-    <row r="958" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="958" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E958" s="6"/>
     </row>
-    <row r="959" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="959" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E959" s="6"/>
     </row>
-    <row r="960" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E960" s="6"/>
     </row>
-    <row r="961" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="961" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E961" s="6"/>
     </row>
-    <row r="962" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="962" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E962" s="6"/>
     </row>
-    <row r="963" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="963" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E963" s="6"/>
     </row>
-    <row r="964" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="964" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E964" s="6"/>
     </row>
-    <row r="965" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="965" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E965" s="6"/>
     </row>
-    <row r="966" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="966" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E966" s="6"/>
     </row>
-    <row r="967" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="967" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E967" s="6"/>
     </row>
-    <row r="968" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="968" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E968" s="6"/>
     </row>
-    <row r="969" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="969" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E969" s="6"/>
     </row>
-    <row r="970" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="970" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E970" s="6"/>
     </row>
-    <row r="971" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="971" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E971" s="6"/>
     </row>
-    <row r="972" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="972" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E972" s="6"/>
     </row>
-    <row r="973" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="973" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E973" s="6"/>
     </row>
-    <row r="974" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="974" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E974" s="6"/>
     </row>
-    <row r="975" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="975" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E975" s="6"/>
     </row>
-    <row r="976" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="976" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E976" s="6"/>
     </row>
-    <row r="977" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="977" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E977" s="6"/>
     </row>
-    <row r="978" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="978" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E978" s="6"/>
     </row>
-    <row r="979" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="979" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E979" s="6"/>
     </row>
-    <row r="980" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="980" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E980" s="6"/>
     </row>
-    <row r="981" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="981" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E981" s="6"/>
     </row>
-    <row r="982" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="982" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E982" s="6"/>
     </row>
-    <row r="983" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="983" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E983" s="6"/>
     </row>
-    <row r="984" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="984" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E984" s="6"/>
     </row>
-    <row r="985" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="985" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E985" s="6"/>
     </row>
-    <row r="986" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="986" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E986" s="6"/>
     </row>
-    <row r="987" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="987" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E987" s="6"/>
     </row>
-    <row r="988" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="988" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E988" s="6"/>
     </row>
-    <row r="989" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="989" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E989" s="6"/>
     </row>
-    <row r="990" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="990" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E990" s="6"/>
     </row>
-    <row r="991" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="991" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E991" s="6"/>
     </row>
-    <row r="992" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="992" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E992" s="6"/>
     </row>
-    <row r="993" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="993" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E993" s="6"/>
     </row>
-    <row r="994" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="994" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E994" s="6"/>
     </row>
-    <row r="995" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="995" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E995" s="6"/>
     </row>
-    <row r="996" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="996" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E996" s="6"/>
     </row>
-    <row r="997" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="997" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E997" s="6"/>
     </row>
-    <row r="998" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="998" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E998" s="6"/>
     </row>
-    <row r="999" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="999" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E999" s="6"/>
     </row>
-    <row r="1000" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1000" s="6"/>
     </row>
-    <row r="1001" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1001" s="6"/>
     </row>
-    <row r="1002" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="1002" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1002" s="6"/>
+    </row>
+    <row r="1003" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1003" s="6"/>
+    </row>
+    <row r="1004" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1004" s="6"/>
+    </row>
+    <row r="1005" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1005" s="6"/>
+    </row>
+    <row r="1006" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1006" s="6"/>
+    </row>
+    <row r="1007" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1007" s="6"/>
+    </row>
+    <row r="1008" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1008" s="6"/>
+    </row>
+    <row r="1009" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1009" s="6"/>
+    </row>
+    <row r="1010" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1010" s="6"/>
+    </row>
+    <row r="1011" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1011" s="6"/>
+    </row>
+    <row r="1012" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1012" s="6"/>
+    </row>
+    <row r="1013" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E1013" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5202,19 +5532,19 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:G94">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"Пройдено"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"Не пройдено"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E7:G114">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Заблокировано"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Не пройдено"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Пройдено"</formula>
+    </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:G94" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:G114" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Пройдено,Не пройдено,Заблокировано"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Чек-лист (Aliexpress).xlsx
+++ b/Чек-лист (Aliexpress).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Работа\Портфолио (Git)\Чек-листы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F550C9-CCEB-4CA1-9932-3E41C69EFFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C00D424-06B5-4122-9004-A4412475EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="148">
   <si>
     <t>Проект</t>
   </si>
@@ -82,15 +82,9 @@
     <t>Изображение товара</t>
   </si>
   <si>
-    <t>Отображается изображение товара</t>
-  </si>
-  <si>
     <t>Пройдено</t>
   </si>
   <si>
-    <t>Отображаются кнопки перехода по изображениям при наведении указателя</t>
-  </si>
-  <si>
     <t>Переход к предыдущему изображению нажатием на кнопку "&lt;"</t>
   </si>
   <si>
@@ -139,12 +133,6 @@
     <t>Панель выбора варианта товара (цвета)</t>
   </si>
   <si>
-    <t>Отображается азвание варианта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выбор из доступных вариантов нажатием </t>
-  </si>
-  <si>
     <t>Название варианта меняется после выбора одного из вариантов</t>
   </si>
   <si>
@@ -169,30 +157,12 @@
     <t>Информация о заказе</t>
   </si>
   <si>
-    <t>Отображается фактическая цена товара</t>
-  </si>
-  <si>
-    <t>Отображается цена товара без скидки</t>
-  </si>
-  <si>
-    <t>Отображается процент скидки</t>
-  </si>
-  <si>
-    <t>Отображается дополнительная информация (за какое количество товара указана цена, ограничение на покупку)</t>
-  </si>
-  <si>
-    <t>Отображается информация о датах и цене доставки</t>
-  </si>
-  <si>
     <t>Кнопка "В корзину"</t>
   </si>
   <si>
     <t>Добавление товара в корзину нажатием на кнопку "В корзину"</t>
   </si>
   <si>
-    <t>Отображается количество товара по умолчанию</t>
-  </si>
-  <si>
     <t>Увеличение количества товара кнопкой нажатием на кнопку "+"</t>
   </si>
   <si>
@@ -223,27 +193,12 @@
     <t>Блок "Бесплатный возврат"</t>
   </si>
   <si>
-    <t>Отображается информация о возврате товара</t>
-  </si>
-  <si>
-    <t>Отображается кнопка информации "i"</t>
-  </si>
-  <si>
     <t>Отображается модальное окно с информацией о возврате по нажатию на кнопку информации</t>
   </si>
   <si>
     <t>Блок с информацией о продавце</t>
   </si>
   <si>
-    <t>Отображается название магазина</t>
-  </si>
-  <si>
-    <t>Отображается рейтинг продавца</t>
-  </si>
-  <si>
-    <t>Отображается число подписчиков</t>
-  </si>
-  <si>
     <t>Переход на страницу магазина нажатием на блок с информацией о продавце</t>
   </si>
   <si>
@@ -253,12 +208,6 @@
     <t>Открывается новая вкладка со страницей товара после нажатия на карточку товара</t>
   </si>
   <si>
-    <t>Отображается кнопка пролистывания вправо по умолчанию</t>
-  </si>
-  <si>
-    <t>Отображается кнопка пролистывания влево при пролистывании вправо</t>
-  </si>
-  <si>
     <t>Кнопка пролистывания вправо не отображается, если был достигнут конец списка похожих товаров</t>
   </si>
   <si>
@@ -343,15 +292,9 @@
     <t>Блок "Описание"</t>
   </si>
   <si>
-    <t>Отображается описание товара</t>
-  </si>
-  <si>
     <t>Заблокировано</t>
   </si>
   <si>
-    <t>Отображаются изображения внутри описания</t>
-  </si>
-  <si>
     <t>Описание по умолчанию свернуто</t>
   </si>
   <si>
@@ -394,9 +337,6 @@
     <t>Кнопка "Пожаловаться на товар"</t>
   </si>
   <si>
-    <t>Открывается модальное окно жалобы на товар</t>
-  </si>
-  <si>
     <t>Блок "Продавец рекомендует"</t>
   </si>
   <si>
@@ -424,52 +364,106 @@
     <t>Изображения отображаются в виде горизонтального слайдера</t>
   </si>
   <si>
-    <t>Отображается кнопка лайка</t>
-  </si>
-  <si>
     <t>Нажатие на кнопку лайка ставит лайк</t>
   </si>
   <si>
     <t>Повторное нажатие скрывает лайк</t>
   </si>
   <si>
-    <t>Отображается аватар пользователя</t>
-  </si>
-  <si>
-    <t>Отображается флаг страны</t>
-  </si>
-  <si>
-    <t>Отображается имя пользователя</t>
-  </si>
-  <si>
-    <t>Отображается дата отзыва в формате "Д месяц ГГГГ"</t>
-  </si>
-  <si>
-    <t>Отображается оценка в виде звезд</t>
-  </si>
-  <si>
     <t>Карточка рекомендованного товара</t>
   </si>
   <si>
-    <t>Отображается пометка о скидке</t>
-  </si>
-  <si>
-    <t>Отображается скидка в процентах</t>
-  </si>
-  <si>
-    <t>Отображается цена со скидкой</t>
-  </si>
-  <si>
-    <t>Отображается рейтинг товара</t>
-  </si>
-  <si>
-    <t>Отображается количество заказов</t>
-  </si>
-  <si>
-    <t>Отображается название в 2 строки с многоточием в конце, если текст большой</t>
-  </si>
-  <si>
     <t>Информация о доставке</t>
+  </si>
+  <si>
+    <t>Кнопки перехода по изображениям при наведении указателя</t>
+  </si>
+  <si>
+    <t>Отображается название варианта</t>
+  </si>
+  <si>
+    <t>Выбор из доступных вариантов нажатием</t>
+  </si>
+  <si>
+    <t>Фактическая цена товара</t>
+  </si>
+  <si>
+    <t>Цена товара без скидки</t>
+  </si>
+  <si>
+    <t>Процент скидки</t>
+  </si>
+  <si>
+    <t>Дополнительная информация (за какое количество товара указана цена, ограничение на покупку)</t>
+  </si>
+  <si>
+    <t>Информация о датах и цене доставки</t>
+  </si>
+  <si>
+    <t>Количество товара по умолчанию</t>
+  </si>
+  <si>
+    <t>Информация о возврате товара</t>
+  </si>
+  <si>
+    <t>Кнопка информации "i"</t>
+  </si>
+  <si>
+    <t>Название магазина</t>
+  </si>
+  <si>
+    <t>Рейтинг продавца</t>
+  </si>
+  <si>
+    <t>Число подписчиков</t>
+  </si>
+  <si>
+    <t>Кнопка пролистывания вправо по умолчанию</t>
+  </si>
+  <si>
+    <t>Кнопка пролистывания влево при пролистывании вправо</t>
+  </si>
+  <si>
+    <t>Аватар пользователя</t>
+  </si>
+  <si>
+    <t>Флаг страны</t>
+  </si>
+  <si>
+    <t>Имя пользователя</t>
+  </si>
+  <si>
+    <t>Дата отзыва в формате "Д месяц ГГГГ"</t>
+  </si>
+  <si>
+    <t>Кнопка лайка</t>
+  </si>
+  <si>
+    <t>Описание товара</t>
+  </si>
+  <si>
+    <t>Изображения внутри описания</t>
+  </si>
+  <si>
+    <t>Открывается модальное окно жалобы на товар после нажатия на кнопку</t>
+  </si>
+  <si>
+    <t>Пометка о скидке</t>
+  </si>
+  <si>
+    <t>Скидка в процентах</t>
+  </si>
+  <si>
+    <t>Цена со скидкой</t>
+  </si>
+  <si>
+    <t>Рейтинг товара</t>
+  </si>
+  <si>
+    <t>Количество заказов</t>
+  </si>
+  <si>
+    <t>Название в 2 строки с многоточием в конце, если текст большой</t>
   </si>
 </sst>
 </file>
@@ -580,6 +574,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -592,9 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,8 +835,8 @@
   </sheetPr>
   <dimension ref="A1:G1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -857,55 +851,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="12">
         <v>45693</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -953,16 +947,16 @@
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -970,16 +964,16 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -987,16 +981,16 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -1004,16 +998,16 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -1021,35 +1015,35 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -1057,16 +1051,16 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -1074,35 +1068,35 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -1110,16 +1104,16 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -1127,16 +1121,16 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1144,16 +1138,16 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -1161,16 +1155,16 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1178,35 +1172,35 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -1214,16 +1208,16 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -1231,16 +1225,16 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
@@ -1248,35 +1242,35 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -1284,16 +1278,16 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
@@ -1301,88 +1295,88 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -1390,35 +1384,35 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -1426,16 +1420,16 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -1443,16 +1437,16 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -1460,16 +1454,16 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="66" x14ac:dyDescent="0.25">
@@ -1477,16 +1471,16 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -1494,35 +1488,35 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="66" x14ac:dyDescent="0.25">
@@ -1530,16 +1524,16 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="66" x14ac:dyDescent="0.25">
@@ -1547,16 +1541,16 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66" x14ac:dyDescent="0.25">
@@ -1564,52 +1558,52 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
@@ -1617,69 +1611,69 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
@@ -1687,69 +1681,69 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="13" t="s">
-        <v>130</v>
+      <c r="D50" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -1757,16 +1751,16 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
@@ -1774,37 +1768,37 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1812,16 +1806,16 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -1829,16 +1823,16 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1846,16 +1840,16 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1863,16 +1857,16 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
@@ -1880,35 +1874,35 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
@@ -1916,16 +1910,16 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
@@ -1933,35 +1927,35 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1969,16 +1963,16 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1986,16 +1980,16 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2003,35 +1997,35 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2039,16 +2033,16 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -2056,16 +2050,16 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2073,54 +2067,54 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2128,33 +2122,33 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -2162,33 +2156,33 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2196,16 +2190,16 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -2213,16 +2207,16 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2230,16 +2224,16 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -2247,16 +2241,16 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -2264,90 +2258,90 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -2355,35 +2349,35 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -2391,35 +2385,35 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -2427,54 +2421,54 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -2482,35 +2476,35 @@
       <c r="B94" s="7"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -2518,54 +2512,54 @@
       <c r="B96" s="7"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
@@ -2573,33 +2567,33 @@
       <c r="B99" s="7"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -2607,16 +2601,16 @@
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
@@ -2624,35 +2618,35 @@
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
@@ -2660,16 +2654,16 @@
       <c r="B104" s="7"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
@@ -2677,150 +2671,150 @@
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D108" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D109" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E107" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="D108" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D110" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="D110" s="5" t="s">
+      <c r="E110" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D111" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="D111" s="5" t="s">
+      <c r="E111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D112" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="D112" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="E112" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="4:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="D113" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D114" s="5" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">

--- a/Чек-лист (Aliexpress).xlsx
+++ b/Чек-лист (Aliexpress).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Работа\Портфолио (Git)\Чек-листы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C00D424-06B5-4122-9004-A4412475EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C312CE-B63B-499C-B191-82422308E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,6 +485,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,11 +494,15 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -594,10 +600,34 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -835,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:G1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5527,13 +5557,13 @@
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:G114">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Заблокировано"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Не пройдено"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Пройдено"</formula>
     </cfRule>
   </conditionalFormatting>
